--- a/flows/RATE_fund_flow_data.xlsx
+++ b/flows/RATE_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B413"/>
+  <dimension ref="A1:B430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4565,6 +4565,176 @@
         <v>0.0006247554</v>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>-0.0003039358</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>-0.000116558724</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0.0001291194</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>-0.00031975142</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>-0.00013869978</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.0006851409</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>-0.0002306477</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>-0.00040655455</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>4.319666e-05</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>0.00011054182</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0.0005363618</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>-3.1632466e-05</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>-4.2367537e-06</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>-3.8605576e-05</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>-0.0004972774</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>-7.327178e-05</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>0.00039437177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
